--- a/master/案件管理台帳_マスター.xlsx
+++ b/master/案件管理台帳_マスター.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,6 +686,55 @@
         <v>45981.45833333334</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-EX-005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>輸出</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>テスト追加株式会社</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>イギリス</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>500</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1250000</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>見積中</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>山田</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>バックアップテスト用の新規案件</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>45981.4470534838</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
